--- a/Untitled-RPG/Assets/Excel/Skills.xlsx
+++ b/Untitled-RPG/Assets/Excel/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Untitled-RPG\Untitled-RPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D93BA-82E7-48EF-B24C-0711636A5C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552A1A53-6CBF-45A0-A7AC-07D547771231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9315256A-FBE0-4846-A7B0-BE8037A06B15}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Knight</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Casts fireball at a target dealing instant damage, plus setting the target on  fire dealing reoccurring damage for 5 seconds. Instant</t>
   </si>
 </sst>
 </file>
@@ -149,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0DCB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -227,12 +242,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0DCB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -541,17 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8A2020-1350-429C-A7A8-844477B7E611}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -753,11 +779,136 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -765,7 +916,7 @@
           <x14:formula1>
             <xm:f>Variables!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D9</xm:sqref>
+          <xm:sqref>D3:D9 D13:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Untitled-RPG/Assets/Excel/Skills.xlsx
+++ b/Untitled-RPG/Assets/Excel/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Untitled-RPG\Untitled-RPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552A1A53-6CBF-45A0-A7AC-07D547771231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C91097-7B05-4434-B753-98F2618E4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9315256A-FBE0-4846-A7B0-BE8037A06B15}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Knight</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>Casts fireball at a target dealing instant damage, plus setting the target on  fire dealing reoccurring damage for 5 seconds. Instant</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Hailstone</t>
+  </si>
+  <si>
+    <t>Power-sphere</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Levitation</t>
+  </si>
+  <si>
+    <t>Armageddon</t>
   </si>
 </sst>
 </file>
@@ -570,13 +588,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -840,7 +858,9 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -851,7 +871,9 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -862,7 +884,9 @@
       <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -873,7 +897,9 @@
       <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -884,7 +910,9 @@
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -895,7 +923,9 @@
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>

--- a/Untitled-RPG/Assets/Excel/Skills.xlsx
+++ b/Untitled-RPG/Assets/Excel/Skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Untitled-RPG\Untitled-RPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C91097-7B05-4434-B753-98F2618E4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49F7454-9B05-4963-B84A-77E975682A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9315256A-FBE0-4846-A7B0-BE8037A06B15}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Knight</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Armageddon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a wall of fire, burning for 20 seconds, and dealing reoccurring damage for 5 seconds. </t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,11 +864,21 @@
       <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>200</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">

--- a/Untitled-RPG/Assets/Excel/Skills.xlsx
+++ b/Untitled-RPG/Assets/Excel/Skills.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Untitled-RPG\Untitled-RPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49F7454-9B05-4963-B84A-77E975682A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFBE2E2-FC8B-4F36-A291-BF5F51E4E1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9315256A-FBE0-4846-A7B0-BE8037A06B15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9315256A-FBE0-4846-A7B0-BE8037A06B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
-    <sheet name="Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="Weapons" sheetId="3" r:id="rId2"/>
+    <sheet name="Variables" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Knight</t>
   </si>
@@ -72,27 +73,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dashes forward and deals damage to everyone on his way.</t>
-  </si>
-  <si>
-    <t>Hits very strongly.</t>
-  </si>
-  <si>
-    <t>Knocks the target on the ground dealing damage.</t>
-  </si>
-  <si>
-    <t>Sets an enemy as a "main target", which then gets 20% more damage for 15 seconds.</t>
-  </si>
-  <si>
-    <t>Increases attack and attack speed by 20% for 20 seconds.</t>
-  </si>
-  <si>
-    <t>Hits the ground, knocking down enemies in front and dealing damage.</t>
-  </si>
-  <si>
-    <t>Spins around dealing damage to everyone close by.</t>
-  </si>
-  <si>
     <t>Skill types</t>
   </si>
   <si>
@@ -117,18 +97,12 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Mage</t>
   </si>
   <si>
     <t>Fireball</t>
   </si>
   <si>
-    <t>Casts fireball at a target dealing instant damage, plus setting the target on  fire dealing reoccurring damage for 5 seconds. Instant</t>
-  </si>
-  <si>
     <t>Firewall</t>
   </si>
   <si>
@@ -147,14 +121,53 @@
     <t>Armageddon</t>
   </si>
   <si>
-    <t xml:space="preserve">Creates a wall of fire, burning for 20 seconds, and dealing reoccurring damage for 5 seconds. </t>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>Dark Matter</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Weapon Type</t>
+  </si>
+  <si>
+    <t>Simple Sword</t>
+  </si>
+  <si>
+    <t>Weapon Types</t>
+  </si>
+  <si>
+    <t>One Handed Sword</t>
+  </si>
+  <si>
+    <t>One Handed Staff</t>
+  </si>
+  <si>
+    <t>Two Handed Sword</t>
+  </si>
+  <si>
+    <t>Two Handed Staff</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Better Sword</t>
+  </si>
+  <si>
+    <t>Legendary Two-handed Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +186,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -241,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -269,6 +296,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,17 +618,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8A2020-1350-429C-A7A8-844477B7E611}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -630,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,217 +674,153 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>100</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3500</v>
-      </c>
-      <c r="F4" s="8">
-        <v>200</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8">
-        <v>200</v>
-      </c>
-      <c r="G6" s="4">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="8">
-        <v>200</v>
-      </c>
-      <c r="G7" s="4">
-        <v>30</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="8">
-        <v>100</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4">
-        <v>300</v>
-      </c>
-      <c r="F9" s="8">
-        <v>200</v>
-      </c>
-      <c r="G9" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="8">
-        <v>100</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,33 +828,27 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="8">
-        <v>200</v>
-      </c>
-      <c r="G14" s="4">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
@@ -898,10 +858,12 @@
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
@@ -911,10 +873,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
@@ -924,10 +888,12 @@
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
@@ -937,18 +903,50 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -959,7 +957,7 @@
           <x14:formula1>
             <xm:f>Variables!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D9 D13:D19</xm:sqref>
+          <xm:sqref>D3:D10 D14:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -968,44 +966,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080AF248-D9F4-4813-81BA-5336E4161BFA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{404092A9-D365-4290-89C1-F550F27F4B4F}">
+          <x14:formula1>
+            <xm:f>Variables!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C55</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726AF758-0DF1-41E5-8F08-8A7D56A5CDA9}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>